--- a/uploads/wine_input.xlsx
+++ b/uploads/wine_input.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,6 +509,20 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/uploads/wine_input.xlsx
+++ b/uploads/wine_input.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,20 +509,6 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
